--- a/Literatur.xlsx
+++ b/Literatur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonv\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0BBF48-7B73-40DD-BBAB-B93D5965E65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C9288F-20EE-4E07-B773-92928B3F6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
   <si>
     <t>Titel</t>
   </si>
@@ -668,6 +668,20 @@
     <t xml:space="preserve">Benutzen als Beispiel die Wirksamkeit und Nebenwirkungen von Medikamenten mittels batch off-policy RL. Jede Behandlung ist eine Aktion. Es gibt keine offensichtlich richtige Rewardfunktion. Gesucht wird ein effizienter Algorithmus der eine optimale Policy für verschiedene Tradeoff Rewardfunktionen berechnen kann. Außerdem wird untersucht, wie der Tradeoff die Policy beeinflusst. 
 Behandelt zwei Rewards die zu einem Skalar zwischen 0 und 1 zusammengefasst werden. Ein Parameter Omega gewichtet die beiden Rewards um das Skalar zu berechnen. 
 Die Valuefunktion wird für verschiedene Werte von Omega bei einer bestimmten Aktion visualisiert. Dabei bildet eine Convexe Funktion die optimalen Omega ab. </t>
+  </si>
+  <si>
+    <t>Reward is enough</t>
+  </si>
+  <si>
+    <t>Silver D, Singh S, Decrup D, Sutton R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothese: Intelligenz und damit verbundene Fähigkeiten entstehen durch die Maximierung von Reward. 
+Reinforcement Learning Agenten könnten eine Lösung für AGI sein. 
+Alphazore hat nur em Ende einer Episode einen Reward für Gewinn oder Verlust bekommen. 
+Reward ist eine Skalare Beobachtung der Umgebung die unmittelbares Maß für den Fortschritt zu einem Ziel ist. Dieser skalare Wert kann z.B. eine Kombination verschiedener Ziele, verschiedene Tradeoffs oder Risiko/Nutzen Abwägungen ausdrücken.
+Rewards können auch ein zwischenzeitiges Feedback für den Fortschritt zu einem Ziel sein, was besonders in Umgebungen mit vielen Zeitschritten hilfreich ist. In unendlichen Umgebungen sind intermediate Rewards notwendig, damit Lernen überhaupt möglich ist. 
+Inhärentes Wissen kann durch das Design eines Agenten benutzt werden. </t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1031,7 @@
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A2" sqref="A2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1598,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2539BA85-B1E6-4881-907F-4ED970FE5A1E}">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1871,8 +1885,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
+    <row r="15" spans="1:7" ht="103.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Literatur.xlsx
+++ b/Literatur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonv\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C9288F-20EE-4E07-B773-92928B3F6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDD2FF-9E6F-4D91-8AB6-7C2831413429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12946" yWindow="0" windowWidth="13232" windowHeight="14047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Shop" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t xml:space="preserve">Lösen das Permutation Flow Shop Scheduling Problem mit einer Kombination der NEH Heuristik, Q-Learning und lokaler Optimierung. Ziel ist die Suche nach einer Sequenz von Aufträgen, die zu einer Minimierung des Makespan (Produktionsdauer). Mit der NEH Heuristik wird eine initale Lösung für die Reihenfolge der Aufträge erzeugt, welche anschließend mit Q-Learning optimiert wird. Der Zustand der Umgebung ist über die Reihenfolge der bereits sortierten Aufträge definiert. Die Aktionen entsprechen dem einsortieren der ausstehenden Aufträge, in die bestehende Reihenfolge. Dazu wird immmer ein Auftrag mit der größten Fertigstellungszeit zuerst gewählt. Der Reward wird mit dem Kehrwert der Produktionsdauer definiert. Nach der Optimierung der Reihenfolge mit Q-Learning, wird lokale Suche mit vier Operationen benutzt, um die Reihenfolge nach weiteren Verbesserungen zu untersuchen. Die Operationen sind der Tausch von zwei benachbarten Aufträge in der Reihenfolge, der Tausch von zwei zufälligen Aufträgen, der Tausch von drei zufälligen Aufträgen und die Veränderung der Position eines einzelnen Auftrags.  NEH Heuristik Erstellt iterativ die Reihenfolge und sucht bei jeder Iteration den Lösungsraum nach der kleinsten Durchlaufzeit ab. </t>
   </si>
   <si>
-    <t>Cesar Y, Puris A, Martinez Y, Trujillo Y</t>
-  </si>
-  <si>
     <t>Q-Learning, NEH Heuristik</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
 Reward ist eine Skalare Beobachtung der Umgebung die unmittelbares Maß für den Fortschritt zu einem Ziel ist. Dieser skalare Wert kann z.B. eine Kombination verschiedener Ziele, verschiedene Tradeoffs oder Risiko/Nutzen Abwägungen ausdrücken.
 Rewards können auch ein zwischenzeitiges Feedback für den Fortschritt zu einem Ziel sein, was besonders in Umgebungen mit vielen Zeitschritten hilfreich ist. In unendlichen Umgebungen sind intermediate Rewards notwendig, damit Lernen überhaupt möglich ist. 
 Inhärentes Wissen kann durch das Design eines Agenten benutzt werden. </t>
+  </si>
+  <si>
+    <t>Fonseca Y, Puris A, Martinez Y, Trujillo Y</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1039,547 +1039,548 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="37.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="6" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="123.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1983</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="181.4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2">
-        <v>2024</v>
+        <v>1995</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="77.45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>2020</v>
+        <v>1998</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="167.8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="116.15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="77.45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="116.15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D10" s="2">
         <v>2020</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="11" spans="1:7" ht="52.3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="167.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2022</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="194.3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90.35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="194.3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="38.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2">
         <v>2021</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="116.15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90.35" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2">
         <v>2021</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="38.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2021</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1998</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="52.3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1993</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1995</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="167.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="167.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1983</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2021</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="185.45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="181.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2">
-        <v>2003</v>
+        <v>2024</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>123</v>
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1603,6 +1604,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
+    <sortCondition ref="D2:D29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1612,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2539BA85-B1E6-4881-907F-4ED970FE5A1E}">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1652,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D3" s="2">
         <v>2015</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="245.9" x14ac:dyDescent="0.25">
@@ -1669,22 +1673,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D4" s="2">
         <v>2022</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="65.25" x14ac:dyDescent="0.25">
@@ -1692,16 +1696,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2">
         <v>2021</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="64.55" x14ac:dyDescent="0.25">
@@ -1709,22 +1713,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D6" s="2">
         <v>2016</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="129.1" x14ac:dyDescent="0.25">
@@ -1732,22 +1736,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D7" s="2">
         <v>2020</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="77.45" x14ac:dyDescent="0.25">
@@ -1755,22 +1759,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="103.95" x14ac:dyDescent="0.25">
@@ -1778,16 +1782,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D9" s="2">
         <v>2023</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
@@ -1795,10 +1799,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D10" s="2">
         <v>2017</v>
@@ -1810,22 +1814,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D11" s="2">
         <v>2018</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -1833,16 +1837,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D12" s="2">
         <v>2022</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="129.1" x14ac:dyDescent="0.25">
@@ -1850,19 +1854,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D13" s="2">
         <v>2000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="90.35" x14ac:dyDescent="0.25">
@@ -1870,19 +1874,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D14" s="2">
         <v>2010</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="103.25" x14ac:dyDescent="0.25">
@@ -1890,16 +1894,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D15" s="2">
         <v>2020</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1952,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -2014,118 +2018,118 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Literatur.xlsx
+++ b/Literatur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonv\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDD2FF-9E6F-4D91-8AB6-7C2831413429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62701051-C606-47D1-83ED-B49DCD77B80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12946" yWindow="0" windowWidth="13232" windowHeight="14047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Shop" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="196">
   <si>
     <t>Titel</t>
   </si>
@@ -682,6 +682,45 @@
   </si>
   <si>
     <t>Fonseca Y, Puris A, Martinez Y, Trujillo Y</t>
+  </si>
+  <si>
+    <t>Trajectory</t>
+  </si>
+  <si>
+    <t>Trajektorie</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Zeitschritt</t>
+  </si>
+  <si>
+    <t>Rollout</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Aktion</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zustand</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Raum</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1046,7 +1085,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -1115,7 +1154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="65.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -1181,7 +1220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -1201,7 +1240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="77.45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1247,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="52.3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -1339,7 +1378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1385,7 +1424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="90.35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1408,7 +1447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="38.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1517,7 +1556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1563,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02753F9F-B972-4CDE-8C24-A964DE4BF457}">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2132,6 +2171,67 @@
         <v>163</v>
       </c>
     </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literatur.xlsx
+++ b/Literatur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonv\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62701051-C606-47D1-83ED-B49DCD77B80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F02B57-459A-43E5-830E-8921F210DAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-95" yWindow="0" windowWidth="13232" windowHeight="14047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Shop" sheetId="1" r:id="rId1"/>
@@ -1069,23 +1069,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="37.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="123.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="99.625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="171.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>17</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="78.150000000000006" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="185.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="214" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="116.15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="142" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="271.05" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="313.85000000000002" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="256.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="313.85000000000002" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>23</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="199.7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="194.3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="245.9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="103.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="285.3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="313.85000000000002" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="167.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="193.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="181.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="220.1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2539BA85-B1E6-4881-907F-4ED970FE5A1E}">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2042,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02753F9F-B972-4CDE-8C24-A964DE4BF457}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
